--- a/data_output/prism_passive/all_passive_out_strain_AT_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36.060888548969935</v>
+        <v>36.060888658261135</v>
       </c>
       <c r="C2">
-        <v>20.102873465947489</v>
+        <v>20.102873489107644</v>
       </c>
       <c r="D2">
-        <v>50.914712169458511</v>
+        <v>50.91471222651932</v>
       </c>
       <c r="E2">
-        <v>34.371288382758017</v>
+        <v>34.371288486121351</v>
       </c>
       <c r="F2">
-        <v>164.75724856869678</v>
+        <v>164.75724858924866</v>
       </c>
       <c r="G2">
-        <v>4.3024671195015207</v>
+        <v>4.3024671704185131</v>
       </c>
       <c r="H2">
-        <v>2.1028925341534381</v>
+        <v>2.1028925805141432</v>
       </c>
       <c r="I2">
-        <v>8.7634464202766242</v>
+        <v>8.7634464721850076</v>
       </c>
       <c r="J2">
-        <v>6.6984981688232024</v>
+        <v>6.6984981929200753</v>
       </c>
       <c r="K2">
-        <v>10.324972562311592</v>
+        <v>10.324972583770045</v>
       </c>
       <c r="L2">
-        <v>3.6184653091800167</v>
+        <v>3.6184653551909758</v>
       </c>
       <c r="M2">
-        <v>18.599161263176583</v>
+        <v>18.599161386081168</v>
       </c>
       <c r="N2">
-        <v>1.3755223417100912</v>
+        <v>1.3755224357192846</v>
       </c>
       <c r="O2">
-        <v>-8.6797250866976086</v>
+        <v>-8.6797249988935299</v>
       </c>
       <c r="P2">
-        <v>46.33500858369014</v>
+        <v>46.335008614778758</v>
       </c>
       <c r="Q2">
-        <v>23.111250530778989</v>
+        <v>23.111250579946901</v>
       </c>
       <c r="R2">
-        <v>6.5796205285451173</v>
+        <v>6.5796205393048064</v>
       </c>
       <c r="S2">
-        <v>13.258966782283203</v>
+        <v>13.258966823511237</v>
       </c>
       <c r="T2">
-        <v>0.41787547737740172</v>
+        <v>0.41787555046815894</v>
       </c>
       <c r="U2">
-        <v>-18.840088998825149</v>
+        <v>-18.840088967716046</v>
       </c>
       <c r="V2">
-        <v>12.877696985280959</v>
+        <v>12.877697000338447</v>
       </c>
       <c r="W2">
-        <v>6.9419916923533664</v>
+        <v>6.9419918399332978</v>
       </c>
       <c r="X2">
-        <v>-5.6538072607993257</v>
+        <v>-5.6538072008153426</v>
       </c>
       <c r="Y2">
-        <v>-11.47154256289687</v>
+        <v>-11.471542502968033</v>
       </c>
       <c r="Z2">
-        <v>49.843922407240129</v>
+        <v>49.843922444761212</v>
       </c>
       <c r="AA2">
-        <v>-2.7345812991646299</v>
+        <v>-2.7345811616885247</v>
       </c>
       <c r="AB2">
-        <v>24.329414047191396</v>
+        <v>24.32941406635944</v>
       </c>
       <c r="AC2">
-        <v>9.9505292829870662</v>
+        <v>9.9505292694893708</v>
       </c>
       <c r="AD2">
-        <v>38.607988769975002</v>
+        <v>38.60798878691444</v>
       </c>
       <c r="AE2">
-        <v>89.424091757457347</v>
+        <v>89.424091827407722</v>
       </c>
       <c r="AF2">
-        <v>8.8758526744100692</v>
+        <v>8.8758526925603647</v>
       </c>
       <c r="AG2">
-        <v>3.5865141018803497</v>
+        <v>3.5865141449713756</v>
       </c>
       <c r="AH2">
-        <v>11.461039328741641</v>
+        <v>11.461039363686274</v>
       </c>
       <c r="AI2">
-        <v>-4.4086634596107608</v>
+        <v>-4.408663432552351</v>
       </c>
       <c r="AJ2">
-        <v>14.205015802420645</v>
+        <v>14.205015882743229</v>
       </c>
       <c r="AK2">
-        <v>7.6065550810720142</v>
+        <v>7.6065551183501192</v>
       </c>
       <c r="AL2">
-        <v>5.2764415219194563</v>
+        <v>5.2764415946754148</v>
       </c>
       <c r="AM2">
-        <v>3.9033052274342062</v>
+        <v>3.9033053398856139</v>
       </c>
       <c r="AN2">
-        <v>5.1668306070048038</v>
+        <v>5.1668307371477997</v>
       </c>
       <c r="AO2">
-        <v>16.708746512506572</v>
+        <v>16.708746620293237</v>
       </c>
       <c r="AP2">
-        <v>-3.7777755069509533</v>
+        <v>-3.7777754800072838</v>
       </c>
       <c r="AQ2">
-        <v>7.6813984154350283</v>
+        <v>7.6813984697275792</v>
       </c>
       <c r="AR2">
-        <v>6.6973463073669484</v>
+        <v>6.6973463455454363</v>
       </c>
       <c r="AS2">
-        <v>4.9366374463216669</v>
+        <v>4.936637468752644</v>
       </c>
       <c r="AT2">
-        <v>-4.4798646468788386</v>
+        <v>-4.479864614404792</v>
       </c>
       <c r="AU2">
-        <v>-0.78342897796139821</v>
+        <v>-0.78342897361209984</v>
       </c>
       <c r="AV2">
-        <v>33.892796812836039</v>
+        <v>33.892796911766347</v>
       </c>
       <c r="AW2">
-        <v>0.50763792944852826</v>
+        <v>0.50763801640320994</v>
       </c>
       <c r="AX2">
-        <v>11.131900443682467</v>
+        <v>11.131900562642121</v>
       </c>
       <c r="AY2">
-        <v>-7.5861074016621064</v>
+        <v>-7.58610736398842</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>33.354615448063043</v>
+        <v>33.354615460865304</v>
       </c>
       <c r="C3">
-        <v>13.628049811713577</v>
+        <v>13.628049878499922</v>
       </c>
       <c r="D3">
-        <v>-11.474877453248199</v>
+        <v>-11.47487741489021</v>
       </c>
       <c r="E3">
-        <v>18.167230566267992</v>
+        <v>18.167230609326566</v>
       </c>
       <c r="F3">
-        <v>24.605547375542137</v>
+        <v>24.605547406015628</v>
       </c>
       <c r="G3">
-        <v>2.5423413665205272</v>
+        <v>2.5423414372278672</v>
       </c>
       <c r="H3">
-        <v>1.1231172038573813</v>
+        <v>1.1231172604747006</v>
       </c>
       <c r="I3">
-        <v>1.275892001429922</v>
+        <v>1.2758920289451889</v>
       </c>
       <c r="J3">
-        <v>5.6371313371794702</v>
+        <v>5.6371313701439369</v>
       </c>
       <c r="K3">
-        <v>-13.05036597828744</v>
+        <v>-13.050365946594164</v>
       </c>
       <c r="L3">
-        <v>-26.352234828625953</v>
+        <v>-26.352234779440149</v>
       </c>
       <c r="M3">
-        <v>30.203555903798694</v>
+        <v>30.203665399499318</v>
       </c>
       <c r="N3">
-        <v>4.5000708555015789</v>
+        <v>4.5000709278247832</v>
       </c>
       <c r="O3">
-        <v>7.1691462742942331</v>
+        <v>7.1691463110793299</v>
       </c>
       <c r="P3">
-        <v>1.1902255372223109</v>
+        <v>1.1902256827171958</v>
       </c>
       <c r="Q3">
-        <v>19.842310891841642</v>
+        <v>19.842310932052023</v>
       </c>
       <c r="R3">
-        <v>18.788667453329495</v>
+        <v>18.788667529056397</v>
       </c>
       <c r="S3">
-        <v>10.427099889473565</v>
+        <v>10.427099918107603</v>
       </c>
       <c r="T3">
-        <v>5.8396114813428621</v>
+        <v>5.8396115260137291</v>
       </c>
       <c r="U3">
-        <v>3.8368926895020743</v>
+        <v>3.8368927237191977</v>
       </c>
       <c r="V3">
-        <v>-28.52428537730815</v>
+        <v>-28.524285364621594</v>
       </c>
       <c r="W3">
-        <v>-3.8011882892149877</v>
+        <v>-3.8011882258224392</v>
       </c>
       <c r="X3">
-        <v>11.051294299587703</v>
+        <v>11.051294333417427</v>
       </c>
       <c r="Y3">
-        <v>6.2524763793363007</v>
+        <v>6.2524764324226618</v>
       </c>
       <c r="Z3">
-        <v>2.8795820954707922</v>
+        <v>2.8795821295865576</v>
       </c>
       <c r="AA3">
-        <v>9.3556964044198576</v>
+        <v>9.355696495172781</v>
       </c>
       <c r="AB3">
-        <v>18.865819097361967</v>
+        <v>18.865819107091266</v>
       </c>
       <c r="AC3">
-        <v>5.3577062299302431</v>
+        <v>5.3577062742268771</v>
       </c>
       <c r="AD3">
-        <v>26.814797911758198</v>
+        <v>26.81479799075731</v>
       </c>
       <c r="AE3">
-        <v>15.270357132014526</v>
+        <v>15.270357145343775</v>
       </c>
       <c r="AF3">
-        <v>8.2495073078279937</v>
+        <v>8.2495073547604125</v>
       </c>
       <c r="AG3">
-        <v>-4.1899839579714984</v>
+        <v>-4.1899839152530927</v>
       </c>
       <c r="AH3">
-        <v>-6.4594376737500108</v>
+        <v>-6.4594376925333732</v>
       </c>
       <c r="AI3">
-        <v>13.445942266589567</v>
+        <v>13.445942309131123</v>
       </c>
       <c r="AJ3">
-        <v>-0.8296576240925595</v>
+        <v>-0.82965752734491161</v>
       </c>
       <c r="AK3">
-        <v>-7.6262839337452748</v>
+        <v>-7.6262838955619427</v>
       </c>
       <c r="AL3">
-        <v>-8.5497446880101649</v>
+        <v>-8.5497446055906039</v>
       </c>
       <c r="AM3">
-        <v>9.6023476939006738</v>
+        <v>9.6023478075255611</v>
       </c>
       <c r="AN3">
-        <v>30.181509456157585</v>
+        <v>30.181509558487786</v>
       </c>
       <c r="AO3">
-        <v>10.013251634569817</v>
+        <v>10.013251723077547</v>
       </c>
       <c r="AP3">
-        <v>5.7429687023292875</v>
+        <v>5.7429687748252363</v>
       </c>
       <c r="AQ3">
-        <v>0.77656821483446103</v>
+        <v>0.7765682954279618</v>
       </c>
       <c r="AR3">
-        <v>5.7562477086175763</v>
+        <v>5.7562477377755545</v>
       </c>
       <c r="AS3">
-        <v>18.344120567537399</v>
+        <v>18.344120598261668</v>
       </c>
       <c r="AT3">
-        <v>6.2188838918299858</v>
+        <v>6.2188839261473987</v>
       </c>
       <c r="AU3">
-        <v>1.0581784302789374</v>
+        <v>1.0581784897315518</v>
       </c>
       <c r="AV3">
-        <v>-0.96959245967578511</v>
+        <v>-0.96959230880398306</v>
       </c>
       <c r="AW3">
-        <v>25.444922938133256</v>
+        <v>25.44492324450594</v>
       </c>
       <c r="AX3">
-        <v>16.811197973696444</v>
+        <v>16.81119805289423</v>
       </c>
       <c r="AY3">
-        <v>6.7352361029183445</v>
+        <v>6.7352361880143805</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_AT_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>36.060888658261135</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>20.102873489107644</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>50.91471222651932</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>34.371288486121351</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>164.75724858924866</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>4.3024671704185131</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.1028925805141432</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.7634464721850076</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.6984981929200753</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>10.324972583770045</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.6184653551909758</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>18.599161386081168</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.3755224357192846</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-8.6797249988935299</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>46.335008614778758</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>23.111250579946901</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>6.5796205393048064</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>13.258966823511237</v>
+        <v>13.258897601236827</v>
       </c>
       <c r="T2">
         <v>0.41787555046815894</v>
@@ -576,147 +465,144 @@
         <v>12.877697000338447</v>
       </c>
       <c r="W2">
-        <v>6.9419918399332978</v>
+        <v>6.9418847158122254</v>
       </c>
       <c r="X2">
-        <v>-5.6538072008153426</v>
+        <v>-5.6537085531543863</v>
       </c>
       <c r="Y2">
         <v>-11.471542502968033</v>
       </c>
       <c r="Z2">
-        <v>49.843922444761212</v>
+        <v>49.844026695344326</v>
       </c>
       <c r="AA2">
-        <v>-2.7345811616885247</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>24.32941406635944</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>9.9505292694893708</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>38.60798878691444</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>89.424091827407722</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.8758526925603647</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>3.5865141449713756</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>11.461039363686274</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>-4.408663432552351</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>14.205015882743229</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>7.6065551183501192</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>5.2764415946754148</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>3.9033053398856139</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>5.1668307371477997</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>16.708746620293237</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-3.7777754800072838</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>7.6813984697275792</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>6.6973463455454363</v>
+        <v>6.6974093358486826</v>
       </c>
       <c r="AS2">
         <v>4.936637468752644</v>
       </c>
       <c r="AT2">
-        <v>-4.479864614404792</v>
+        <v>-4.4799210194029504</v>
       </c>
       <c r="AU2">
-        <v>-0.78342897361209984</v>
+        <v>-0.78337317684642715</v>
       </c>
       <c r="AV2">
-        <v>33.892796911766347</v>
+        <v>33.892675125713751</v>
       </c>
       <c r="AW2">
-        <v>0.50763801640320994</v>
+        <v>0.50774199735224745</v>
       </c>
       <c r="AX2">
-        <v>11.131900562642121</v>
+        <v>11.132004911207565</v>
       </c>
       <c r="AY2">
-        <v>-7.58610736398842</v>
+        <v>-7.5860547267618497</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>33.354615460865304</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13.628049878499922</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-11.47487741489021</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>18.167230609326566</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>24.605547406015628</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.5423414372278672</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.1231172604747006</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.2758920289451889</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.6371313701439369</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-13.050365946594164</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-26.352234779440149</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>30.203665399499318</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4.5000709278247832</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.1691463110793299</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.1902256827171958</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>19.842310932052023</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>18.788667529056397</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>10.427099918107603</v>
@@ -728,94 +614,94 @@
         <v>3.8368927237191977</v>
       </c>
       <c r="V3">
-        <v>-28.524285364621594</v>
+        <v>-28.524248564988696</v>
       </c>
       <c r="W3">
-        <v>-3.8011882258224392</v>
+        <v>-3.8011417486327068</v>
       </c>
       <c r="X3">
-        <v>11.051294333417427</v>
+        <v>11.051125809833843</v>
       </c>
       <c r="Y3">
-        <v>6.2524764324226618</v>
+        <v>-38.702101826463128</v>
       </c>
       <c r="Z3">
-        <v>2.8795821295865576</v>
+        <v>-9.7741338080245068</v>
       </c>
       <c r="AA3">
-        <v>9.355696495172781</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>18.865819107091266</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>5.3577062742268771</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>26.81479799075731</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>15.270357145343775</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>8.2495073547604125</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-4.1899839152530927</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-6.4594376925333732</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>13.445942309131123</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.82965752734491161</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>-7.6262838955619427</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-8.5497446055906039</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>9.6023478075255611</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>30.181509558487786</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>10.013251723077547</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>5.7429687748252363</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.7765682954279618</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>5.7562477377755545</v>
+        <v>5.7561816343360981</v>
       </c>
       <c r="AS3">
-        <v>18.344120598261668</v>
+        <v>18.344173602645185</v>
       </c>
       <c r="AT3">
         <v>6.2188839261473987</v>
       </c>
       <c r="AU3">
-        <v>1.0581784897315518</v>
+        <v>1.058237492459958</v>
       </c>
       <c r="AV3">
-        <v>-0.96959230880398306</v>
+        <v>-0.96954618195595166</v>
       </c>
       <c r="AW3">
         <v>25.44492324450594</v>
       </c>
       <c r="AX3">
-        <v>16.81119805289423</v>
+        <v>4.9270397682978393</v>
       </c>
       <c r="AY3">
-        <v>6.7352361880143805</v>
+        <v>-50.283970781426689</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_AT_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36.060802828295444</v>
+        <v>-8.6796474851898218</v>
       </c>
       <c r="C2">
-        <v>5.5412177976928412</v>
+        <v>6.5796205393048064</v>
       </c>
       <c r="D2">
-        <v>50.914794972147639</v>
+        <v>5.1667374473021255</v>
       </c>
       <c r="E2">
-        <v>34.371182061755192</v>
+        <v>7.6813126148273794</v>
       </c>
       <c r="F2">
         <v>164.75724856869678</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>33.354615448063043</v>
+        <v>7.1691463110793299</v>
       </c>
       <c r="C3">
-        <v>0.30041238681706811</v>
+        <v>18.788575696066857</v>
       </c>
       <c r="D3">
-        <v>-11.47492439653948</v>
+        <v>30.181396220663299</v>
       </c>
       <c r="E3">
-        <v>18.167309563001169</v>
+        <v>1.1626872691771324</v>
       </c>
       <c r="F3">
         <v>24.605547375542137</v>

--- a/data_output/prism_passive/all_passive_out_strain_AT_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36.060802828295444</v>
+        <v>44.946245505921233</v>
       </c>
       <c r="C2">
-        <v>5.5412177976928412</v>
+        <v>-8.6796474851898218</v>
       </c>
       <c r="D2">
-        <v>50.914794972147639</v>
+        <v>-2.6724587353141138</v>
       </c>
       <c r="E2">
-        <v>34.371182061755192</v>
+        <v>5.1667374473021255</v>
       </c>
       <c r="F2">
         <v>164.75724856869678</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>33.354615448063043</v>
+        <v>42.549059593217265</v>
       </c>
       <c r="C3">
-        <v>0.30041238681706811</v>
+        <v>7.1691463110793299</v>
       </c>
       <c r="D3">
-        <v>-11.47492439653948</v>
+        <v>-18.927945376511605</v>
       </c>
       <c r="E3">
-        <v>18.167309563001169</v>
+        <v>30.181396220663299</v>
       </c>
       <c r="F3">
         <v>24.605547375542137</v>

--- a/data_output/prism_passive/all_passive_out_strain_AT_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>36.060802937586587</v>
+      </c>
+      <c r="C2">
+        <v>5.5412178180449798</v>
+      </c>
+      <c r="D2">
+        <v>50.914795029208484</v>
+      </c>
+      <c r="E2">
+        <v>34.371182165118448</v>
+      </c>
+      <c r="F2">
+        <v>164.75724858924866</v>
+      </c>
+      <c r="G2">
+        <v>4.3023801806471109</v>
+      </c>
+      <c r="H2">
+        <v>2.1028925805141432</v>
+      </c>
+      <c r="I2">
+        <v>8.7635180764581992</v>
+      </c>
+      <c r="J2">
+        <v>6.6984529900438901</v>
+      </c>
+      <c r="K2">
+        <v>-15.636989314205039</v>
+      </c>
+      <c r="L2">
+        <v>3.6184338279099935</v>
+      </c>
+      <c r="M2">
+        <v>18.599161386081168</v>
+      </c>
+      <c r="N2">
         <v>44.946245505921233</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>-8.6796474851898218</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>46.335008614778758</v>
+      </c>
+      <c r="Q2">
+        <v>-36.074084186778862</v>
+      </c>
+      <c r="R2">
+        <v>6.5796205393048064</v>
+      </c>
+      <c r="S2">
+        <v>13.258897601236827</v>
+      </c>
+      <c r="T2">
+        <v>0.41787555046815894</v>
+      </c>
+      <c r="U2">
+        <v>-18.840088967716046</v>
+      </c>
+      <c r="V2">
+        <v>12.877697000338447</v>
+      </c>
+      <c r="W2">
+        <v>6.9418847158122254</v>
+      </c>
+      <c r="X2">
+        <v>-5.6537085531543863</v>
+      </c>
+      <c r="Y2">
+        <v>-11.471542502968033</v>
+      </c>
+      <c r="Z2">
+        <v>49.844026695344326</v>
+      </c>
+      <c r="AA2">
+        <v>-2.734638740098509</v>
+      </c>
+      <c r="AB2">
+        <v>57.985282080140777</v>
+      </c>
+      <c r="AC2">
+        <v>9.9505908016627718</v>
+      </c>
+      <c r="AD2">
+        <v>38.608102893721593</v>
+      </c>
+      <c r="AE2">
+        <v>89.424091827407722</v>
+      </c>
+      <c r="AF2">
+        <v>8.8759458669570623</v>
+      </c>
+      <c r="AG2">
+        <v>3.5864757037022534</v>
+      </c>
+      <c r="AH2">
+        <v>11.461110604988532</v>
+      </c>
+      <c r="AI2">
+        <v>-4.408663432552351</v>
+      </c>
+      <c r="AJ2">
+        <v>11.486502136993829</v>
+      </c>
+      <c r="AK2">
+        <v>7.6065551183501192</v>
+      </c>
+      <c r="AL2">
+        <v>5.2765102792075469</v>
+      </c>
+      <c r="AM2">
         <v>-2.6724587353141138</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>5.1667374473021255</v>
       </c>
-      <c r="F2">
-        <v>164.75724856869678</v>
-      </c>
-      <c r="G2">
-        <v>4.3023801297301603</v>
-      </c>
-      <c r="H2">
-        <v>2.1028925341534381</v>
-      </c>
-      <c r="I2">
-        <v>8.7635180245497821</v>
-      </c>
-      <c r="J2">
-        <v>6.6984529659470269</v>
-      </c>
-      <c r="K2">
-        <v>-15.636989330613831</v>
-      </c>
-      <c r="L2">
-        <v>3.6184337818990482</v>
-      </c>
-      <c r="M2">
-        <v>18.599161263176583</v>
-      </c>
-      <c r="N2">
-        <v>44.946245371507331</v>
-      </c>
-      <c r="O2">
-        <v>-8.679647572993975</v>
-      </c>
-      <c r="P2">
-        <v>46.33500858369014</v>
-      </c>
-      <c r="Q2">
-        <v>-36.074084212309465</v>
-      </c>
-      <c r="R2">
-        <v>6.5796205285451173</v>
-      </c>
-      <c r="S2">
-        <v>13.258897560008817</v>
-      </c>
-      <c r="T2">
-        <v>0.41787547737740172</v>
-      </c>
-      <c r="U2">
-        <v>-18.840088998825149</v>
-      </c>
-      <c r="V2">
-        <v>12.877696985280959</v>
-      </c>
-      <c r="W2">
-        <v>6.9418845682324424</v>
-      </c>
-      <c r="X2">
-        <v>-5.6537086131384324</v>
-      </c>
-      <c r="Y2">
-        <v>-11.47154256289687</v>
-      </c>
-      <c r="Z2">
-        <v>49.844026657823221</v>
-      </c>
-      <c r="AA2">
-        <v>-2.7346388775745329</v>
-      </c>
-      <c r="AB2">
-        <v>57.985282055783962</v>
-      </c>
-      <c r="AC2">
-        <v>9.9505908151604743</v>
-      </c>
-      <c r="AD2">
-        <v>38.608102876782155</v>
-      </c>
-      <c r="AE2">
-        <v>89.424091757457347</v>
-      </c>
-      <c r="AF2">
-        <v>8.8759458488067509</v>
-      </c>
-      <c r="AG2">
-        <v>3.5864756606112436</v>
-      </c>
-      <c r="AH2">
-        <v>11.461110570043878</v>
-      </c>
-      <c r="AI2">
-        <v>-4.4086634596107608</v>
-      </c>
-      <c r="AJ2">
-        <v>11.486502058583229</v>
-      </c>
-      <c r="AK2">
-        <v>7.6065550810720142</v>
-      </c>
-      <c r="AL2">
-        <v>5.2765102064515412</v>
-      </c>
-      <c r="AM2">
-        <v>-2.6724588406487713</v>
-      </c>
-      <c r="AN2">
-        <v>5.1667373171592459</v>
-      </c>
       <c r="AO2">
-        <v>16.708891351870637</v>
+        <v>16.708891459657433</v>
       </c>
       <c r="AP2">
-        <v>-3.7777755069509533</v>
+        <v>-3.7777754800072838</v>
       </c>
       <c r="AQ2">
-        <v>7.6813125605348711</v>
+        <v>7.6813126148273794</v>
       </c>
       <c r="AR2">
-        <v>6.6974092976701716</v>
+        <v>6.6974093358486826</v>
       </c>
       <c r="AS2">
-        <v>4.9366374463216669</v>
+        <v>4.936637468752644</v>
       </c>
       <c r="AT2">
-        <v>-4.4799210518769765</v>
+        <v>-4.4799210194029504</v>
       </c>
       <c r="AU2">
-        <v>-0.78337318119572796</v>
+        <v>-0.78337317684642715</v>
       </c>
       <c r="AV2">
-        <v>33.892675026783536</v>
+        <v>33.892675125713751</v>
       </c>
       <c r="AW2">
-        <v>0.50774191039747574</v>
+        <v>0.50774199735224745</v>
       </c>
       <c r="AX2">
-        <v>11.132004792247798</v>
+        <v>11.132004911207565</v>
       </c>
       <c r="AY2">
-        <v>-7.5860547644355583</v>
+        <v>-7.5860547267618497</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>33.354615460865304</v>
+      </c>
+      <c r="C3">
+        <v>0.30041244576992393</v>
+      </c>
+      <c r="D3">
+        <v>-11.474924358181511</v>
+      </c>
+      <c r="E3">
+        <v>18.167309606059774</v>
+      </c>
+      <c r="F3">
+        <v>24.605547406015628</v>
+      </c>
+      <c r="G3">
+        <v>2.5424204844001728</v>
+      </c>
+      <c r="H3">
+        <v>1.1231553760525526</v>
+      </c>
+      <c r="I3">
+        <v>1.2759755677708233</v>
+      </c>
+      <c r="J3">
+        <v>-8.5920441421862339</v>
+      </c>
+      <c r="K3">
+        <v>-13.050365946594164</v>
+      </c>
+      <c r="L3">
+        <v>-26.352234779440149</v>
+      </c>
+      <c r="M3">
+        <v>30.203541100621095</v>
+      </c>
+      <c r="N3">
         <v>42.549059593217265</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>7.1691463110793299</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>1.1902256827171958</v>
+      </c>
+      <c r="Q3">
+        <v>19.84243324533843</v>
+      </c>
+      <c r="R3">
+        <v>18.788575696066857</v>
+      </c>
+      <c r="S3">
+        <v>10.427099918107603</v>
+      </c>
+      <c r="T3">
+        <v>5.8396115260137291</v>
+      </c>
+      <c r="U3">
+        <v>3.8368927237191977</v>
+      </c>
+      <c r="V3">
+        <v>-28.524248564988696</v>
+      </c>
+      <c r="W3">
+        <v>-3.8011417486327068</v>
+      </c>
+      <c r="X3">
+        <v>11.051125809833843</v>
+      </c>
+      <c r="Y3">
+        <v>-38.702101826463128</v>
+      </c>
+      <c r="Z3">
+        <v>-9.7741338080245068</v>
+      </c>
+      <c r="AA3">
+        <v>9.3557806000577273</v>
+      </c>
+      <c r="AB3">
+        <v>18.003558767828427</v>
+      </c>
+      <c r="AC3">
+        <v>5.3576434366661774</v>
+      </c>
+      <c r="AD3">
+        <v>26.814875408253197</v>
+      </c>
+      <c r="AE3">
+        <v>15.270447275802098</v>
+      </c>
+      <c r="AF3">
+        <v>8.2495073547604125</v>
+      </c>
+      <c r="AG3">
+        <v>-4.1899839152530927</v>
+      </c>
+      <c r="AH3">
+        <v>-6.4263433089999848</v>
+      </c>
+      <c r="AI3">
+        <v>9.4259267700931098</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.82965752734491161</v>
+      </c>
+      <c r="AK3">
+        <v>-7.6263106090275716</v>
+      </c>
+      <c r="AL3">
+        <v>-8.5497446055906039</v>
+      </c>
+      <c r="AM3">
         <v>-18.927945376511605</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>30.181396220663299</v>
       </c>
-      <c r="F3">
-        <v>24.605547375542137</v>
-      </c>
-      <c r="G3">
-        <v>2.5424204136927786</v>
-      </c>
-      <c r="H3">
-        <v>1.1231553194352122</v>
-      </c>
-      <c r="I3">
-        <v>1.2759755402555335</v>
-      </c>
-      <c r="J3">
-        <v>-8.5920441707104338</v>
-      </c>
-      <c r="K3">
-        <v>-13.05036597828744</v>
-      </c>
-      <c r="L3">
-        <v>-26.352234828625953</v>
-      </c>
-      <c r="M3">
-        <v>30.203431605025006</v>
-      </c>
-      <c r="N3">
-        <v>42.549059494560822</v>
-      </c>
-      <c r="O3">
-        <v>7.1691462742942331</v>
-      </c>
-      <c r="P3">
-        <v>1.1902255372223109</v>
-      </c>
-      <c r="Q3">
-        <v>19.842433205128007</v>
-      </c>
-      <c r="R3">
-        <v>18.788575620340012</v>
-      </c>
-      <c r="S3">
-        <v>10.427099889473565</v>
-      </c>
-      <c r="T3">
-        <v>5.8396114813428621</v>
-      </c>
-      <c r="U3">
-        <v>3.8368926895020743</v>
-      </c>
-      <c r="V3">
-        <v>-28.524248577675259</v>
-      </c>
-      <c r="W3">
-        <v>-3.801141812025286</v>
-      </c>
-      <c r="X3">
-        <v>11.05112577600417</v>
-      </c>
-      <c r="Y3">
-        <v>-38.702101857089069</v>
-      </c>
-      <c r="Z3">
-        <v>-9.7741338379441896</v>
-      </c>
-      <c r="AA3">
-        <v>9.3557805093047364</v>
-      </c>
-      <c r="AB3">
-        <v>18.003558758169703</v>
-      </c>
-      <c r="AC3">
-        <v>5.3576433923695701</v>
-      </c>
-      <c r="AD3">
-        <v>26.814875329254029</v>
-      </c>
-      <c r="AE3">
-        <v>15.270447262472835</v>
-      </c>
-      <c r="AF3">
-        <v>8.2495073078279937</v>
-      </c>
-      <c r="AG3">
-        <v>-4.1899839579714984</v>
-      </c>
-      <c r="AH3">
-        <v>-6.4263433483429822</v>
-      </c>
-      <c r="AI3">
-        <v>9.4259267290590358</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.8296576240925595</v>
-      </c>
-      <c r="AK3">
-        <v>-7.6263106472108921</v>
-      </c>
-      <c r="AL3">
-        <v>-8.5497446880101649</v>
-      </c>
-      <c r="AM3">
-        <v>-18.927945460559105</v>
-      </c>
-      <c r="AN3">
-        <v>30.181396118333193</v>
-      </c>
       <c r="AO3">
-        <v>10.013140666900773</v>
+        <v>10.013140755408415</v>
       </c>
       <c r="AP3">
-        <v>5.7430583212430015</v>
+        <v>5.7430583937390116</v>
       </c>
       <c r="AQ3">
-        <v>1.1626871867954298</v>
+        <v>1.1626872691771324</v>
       </c>
       <c r="AR3">
-        <v>5.7561816051781376</v>
+        <v>5.7561816343360981</v>
       </c>
       <c r="AS3">
-        <v>18.344173571920905</v>
+        <v>18.344173602645185</v>
       </c>
       <c r="AT3">
-        <v>6.2188838918299858</v>
+        <v>6.2188839261473987</v>
       </c>
       <c r="AU3">
-        <v>1.058237433007309</v>
+        <v>1.058237492459958</v>
       </c>
       <c r="AV3">
-        <v>-0.96954633282782376</v>
+        <v>-0.96954618195595166</v>
       </c>
       <c r="AW3">
-        <v>25.444922938133256</v>
+        <v>25.44492324450594</v>
       </c>
       <c r="AX3">
-        <v>4.9270396971574923</v>
+        <v>4.9270397682978393</v>
       </c>
       <c r="AY3">
-        <v>-50.283970821063441</v>
+        <v>-50.283970781426689</v>
       </c>
     </row>
   </sheetData>
